--- a/2P sheets/IGM_leuctra.EAS_steps.xlsx
+++ b/2P sheets/IGM_leuctra.EAS_steps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/2P sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9680A89-5E0F-3946-9229-AD0670C57E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFF77F0-B7E3-0149-9D37-E6780EC6CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="660" windowWidth="28500" windowHeight="15120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="28500" windowHeight="15120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1--Raw data leuctra @EAS" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Step 3--Sum density &amp; ind. mass" sheetId="2" r:id="rId3"/>
     <sheet name="Step 4--IGM_Leuctra" sheetId="5" r:id="rId4"/>
     <sheet name="Size-Freq Leuctra" sheetId="6" r:id="rId5"/>
+    <sheet name="fun figures!" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -484,7 +485,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,12 +505,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -554,12 +549,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,6 +722,797 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
             <a:t> in this sheet from when you've seen it before, just added it for context and to keep it easy for you to reference the daily growth</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7772400" cy="5181600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A07AB8F-79EA-C14F-B0BD-228DA0A26DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="1028700"/>
+          <a:ext cx="7772400" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AEBD533-476C-114B-893F-82981A01F967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="0"/>
+          <a:ext cx="6121400" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Leuctra,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> core sites only (EAS, FRY, RIC)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Not signifcant differences across levels but</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> does seem like lengths are smaller in high to ref, which is interesting </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>salt subsidy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>Also weird how many potention cohorts are puling out in mid</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7772400" cy="5181600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACACCCA2-2DBE-C642-9FFF-14853C6C443C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11760200" y="647700"/>
+          <a:ext cx="7772400" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420E1732-41D3-E045-BF3C-ECE6D05E4CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12471400" y="76200"/>
+          <a:ext cx="5422900" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Stenonema,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> core sites only (EAS, FRY, RIC)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>Not signficant between ref and mid, but get bigger from mid to ref</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7772400" cy="5181600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC83C875-55C3-3A45-8980-BA9869A3279A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="7556500"/>
+          <a:ext cx="7772400" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42847616-7087-AD48-BCBF-DE6DA11A617C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927100" y="6705600"/>
+          <a:ext cx="5422900" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>ALL TAXA,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> core sites only (EAS, FRY, RIC)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Statistically significant differences in length between ref and mid and ref</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> and high!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>This is cool! hard to see difference in graph alone</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5549900" cy="1892300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A866E131-B13C-C240-940A-B36DBEDEB3B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="9002" r="5480" b="62562"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="7607300"/>
+          <a:ext cx="5549900" cy="1892300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4376725" cy="1447800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BAA6E7-9757-6F44-B520-775AABE5F330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="11937" t="1927" r="10959" b="65326"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340600" y="596900"/>
+          <a:ext cx="4376725" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4724400" cy="1066800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7322386-CBE1-AF4B-8937-6CC455CAF0D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="13894" r="13307" b="78895"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19558000" y="749300"/>
+          <a:ext cx="4724400" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11265" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAED9778-B839-5D14-75F1-66168A519B66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12954000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11266" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9195017C-F13A-3FFF-0DBD-52854D7600F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1651000" y="14287500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426356</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E674EA-B2DB-596A-61CE-D730A13DB2A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="507999" y="14312900"/>
+          <a:ext cx="7347857" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEE4618-A2DC-945D-2B1F-14A71507FDE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect l="11546" r="10372" b="62468"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7861300" y="14465300"/>
+          <a:ext cx="5067300" cy="1892300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E9C04F-8FA2-CA4B-9E90-EEA2D0625025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="13220700"/>
+          <a:ext cx="5422900" cy="787400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>ALL TAXA &lt;= 25 mm,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> core sites only (EAS, FRY, RIC)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Statistically significant differences in length between ref and mid and ref</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> and high</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>This is cool! hard to see difference in graph alone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Bigger</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> in ref</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
@@ -6650,7 +7436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CDB00B-52A7-874B-AB53-93F8446B1200}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -7298,4 +8084,19 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E85BDB-71ED-1245-9812-11F3E8ACE1E8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/2P sheets/IGM_leuctra.EAS_steps.xlsx
+++ b/2P sheets/IGM_leuctra.EAS_steps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/2P sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFF77F0-B7E3-0149-9D37-E6780EC6CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6D866F-6038-CE4D-8030-8B29B014A4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="660" windowWidth="28500" windowHeight="15120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="3720" windowWidth="28500" windowHeight="13520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1--Raw data leuctra @EAS" sheetId="3" r:id="rId1"/>
@@ -6700,7 +6700,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7436,8 +7436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CDB00B-52A7-874B-AB53-93F8446B1200}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7590,20 +7590,20 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F20" si="1">D5-D7</f>
+        <f>D5-D7</f>
         <v>37.495514890563356</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H20" si="2">(E5+E7)/2</f>
+        <f t="shared" ref="H6:H20" si="1">(E5+E7)/2</f>
         <v>5.1140841565525758E-2</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" ref="I6:I20" si="3">F6*H6</f>
+        <f t="shared" ref="I6:I20" si="2">F6*H6</f>
         <v>1.9175521864361125</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J20" si="4">I6*9</f>
+        <f t="shared" ref="J6:J20" si="3">I6*9</f>
         <v>17.257969677925011</v>
       </c>
     </row>
@@ -7639,20 +7639,20 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F6:F20" si="4">D7-D9</f>
         <v>-103.69573017581627</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13081328990603203</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" si="2"/>
-        <v>0.13081328990603203</v>
-      </c>
-      <c r="I8" s="5">
+        <v>-13.564779613506726</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
-        <v>-13.564779613506726</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="4"/>
         <v>-122.08301652156054</v>
       </c>
     </row>
@@ -7688,20 +7688,20 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40.007176175098607</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18278142957310775</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="2"/>
-        <v>0.18278142957310775</v>
-      </c>
-      <c r="I10" s="5">
+        <v>7.3125688544677008</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="3"/>
-        <v>7.3125688544677008</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="4"/>
         <v>65.813119690209305</v>
       </c>
     </row>
@@ -7737,20 +7737,20 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>84.320057409400832</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.19238437649252277</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="2"/>
-        <v>0.19238437649252277</v>
-      </c>
-      <c r="I12" s="5">
+        <v>16.221861670521303</v>
+      </c>
+      <c r="J12" s="5">
         <f t="shared" si="3"/>
-        <v>16.221861670521303</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="4"/>
         <v>145.99675503469172</v>
       </c>
     </row>
@@ -7786,20 +7786,20 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.3821313240042912</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.29420471328436748</v>
+      </c>
+      <c r="I14" s="5">
         <f t="shared" si="2"/>
-        <v>0.29420471328436748</v>
-      </c>
-      <c r="I14" s="5">
+        <v>1.5834484030374956</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="3"/>
-        <v>1.5834484030374956</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="4"/>
         <v>14.25103562733746</v>
       </c>
     </row>
@@ -7835,20 +7835,20 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>32.292787944025839</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.29252064750877499</v>
+      </c>
+      <c r="I16" s="5">
         <f t="shared" si="2"/>
-        <v>0.29252064750877499</v>
-      </c>
-      <c r="I16" s="5">
+        <v>9.446307239250002</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="3"/>
-        <v>9.446307239250002</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="4"/>
         <v>85.01676515325002</v>
       </c>
     </row>
@@ -7884,20 +7884,20 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21.528525296017229</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.17260309723525</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="2"/>
-        <v>0.17260309723525</v>
-      </c>
-      <c r="I18" s="5">
+        <v>3.7158901450000008</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="3"/>
-        <v>3.7158901450000008</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="4"/>
         <v>33.443011305000006</v>
       </c>
     </row>
@@ -7933,20 +7933,20 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
-        <f t="shared" si="1"/>
+        <f>D19-D21</f>
         <v>10.764262648008611</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>6.8882194233450003E-2</v>
+      </c>
+      <c r="I20" s="5">
         <f t="shared" si="2"/>
-        <v>6.8882194233450003E-2</v>
-      </c>
-      <c r="I20" s="5">
+        <v>0.74146603050000004</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
-        <v>0.74146603050000004</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="4"/>
         <v>6.6731942745000001</v>
       </c>
     </row>
@@ -8090,8 +8090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E85BDB-71ED-1245-9812-11F3E8ACE1E8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
